--- a/Tokenization of Customer Loyalty on Blockchain - Action Plan.xlsx
+++ b/Tokenization of Customer Loyalty on Blockchain - Action Plan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEB120-EC91-4521-AC1F-6F9BAF16A728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE55F702-7D15-4DF2-90AB-AF1B293F9670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>PROGRESS</t>
   </si>
@@ -142,13 +142,40 @@
     <t>Sketching out the TechStack to be used for the project</t>
   </si>
   <si>
-    <t>Yet to be planned</t>
-  </si>
-  <si>
     <t>Phase 2 Developing the Consortium Blockchain Network and Smart Contracts</t>
   </si>
   <si>
-    <t>Phase 3 Testing</t>
+    <t>Phase 3 Integration of Smart Contracts using Web3</t>
+  </si>
+  <si>
+    <t>Geth Download and Network Setup</t>
+  </si>
+  <si>
+    <t>users.sol</t>
+  </si>
+  <si>
+    <t>messages.sol</t>
+  </si>
+  <si>
+    <t>ideators.sol</t>
+  </si>
+  <si>
+    <t>investors.sol</t>
+  </si>
+  <si>
+    <t>Login Page for Permissions using IPFS</t>
+  </si>
+  <si>
+    <t>Admin Panel</t>
+  </si>
+  <si>
+    <t>Ideators Interface</t>
+  </si>
+  <si>
+    <t>Investors Interface</t>
+  </si>
+  <si>
+    <t>Tokens Creation and Rewarding</t>
   </si>
 </sst>
 </file>
@@ -647,76 +674,76 @@
     <xf numFmtId="9" fontId="6" fillId="10" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="10" borderId="13" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="10" borderId="13" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,187 +763,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1073,15 +920,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1500,7 +1347,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1515,295 +1362,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
     </row>
     <row r="2" spans="1:61" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
     </row>
     <row r="3" spans="1:61" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="35">
+      <c r="B3" s="43"/>
+      <c r="C3" s="54">
         <v>44797</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
     </row>
     <row r="4" spans="1:61" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="32">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="55">
         <v>1</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46">
+      <c r="D4" s="55"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="51">
         <f>F5</f>
         <v>44795</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46">
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="51">
         <f>M5</f>
         <v>44802</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="46">
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="51">
         <f>T5</f>
         <v>44809</v>
       </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="46">
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="51">
         <f>AA5</f>
         <v>44816</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="46">
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="51">
         <f>AH5</f>
         <v>44823</v>
       </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="46">
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="51">
         <f>AO5</f>
         <v>44830</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="46">
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="51">
         <f>AV5</f>
         <v>44837</v>
       </c>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="46">
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="51">
         <f>BC5</f>
         <v>44844</v>
       </c>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="48"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="53"/>
     </row>
     <row r="5" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="44"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44795</v>
@@ -2030,7 +1877,7 @@
       </c>
     </row>
     <row r="6" spans="1:61" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2271,7 +2118,7 @@
       </c>
     </row>
     <row r="7" spans="1:61" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10"/>
@@ -2281,288 +2128,288 @@
         <f t="shared" ref="E7:E16" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="51"/>
-      <c r="BF7" s="51"/>
-      <c r="BG7" s="51"/>
-      <c r="BH7" s="51"/>
-      <c r="BI7" s="51"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="45"/>
+      <c r="BH7" s="45"/>
+      <c r="BI7" s="45"/>
     </row>
     <row r="8" spans="1:61" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="C8" s="36">
         <v>44797</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>44797</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="51"/>
-      <c r="AY8" s="51"/>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="51"/>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="51"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="45"/>
+      <c r="BC8" s="45"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
+      <c r="BF8" s="45"/>
+      <c r="BG8" s="45"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="45"/>
     </row>
     <row r="9" spans="1:61" s="2" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="38">
+        <v>1</v>
+      </c>
+      <c r="C9" s="36">
         <v>44798</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>44799</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="51"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="51"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="51"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="51"/>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="51"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="45"/>
+      <c r="BC9" s="45"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
+      <c r="BF9" s="45"/>
+      <c r="BG9" s="45"/>
+      <c r="BH9" s="45"/>
+      <c r="BI9" s="45"/>
     </row>
     <row r="10" spans="1:61" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="38">
+        <v>1</v>
+      </c>
+      <c r="C10" s="36">
         <v>44800</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>44819</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="45"/>
+      <c r="AZ10" s="45"/>
+      <c r="BA10" s="45"/>
+      <c r="BB10" s="45"/>
+      <c r="BC10" s="45"/>
+      <c r="BD10" s="45"/>
+      <c r="BE10" s="45"/>
+      <c r="BF10" s="45"/>
+      <c r="BG10" s="45"/>
+      <c r="BH10" s="45"/>
+      <c r="BI10" s="45"/>
     </row>
     <row r="11" spans="1:61" s="2" customFormat="1" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
-        <v>27</v>
+      <c r="A11" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -2571,876 +2418,841 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="51"/>
-      <c r="BA11" s="51"/>
-      <c r="BB11" s="51"/>
-      <c r="BC11" s="51"/>
-      <c r="BD11" s="51"/>
-      <c r="BE11" s="51"/>
-      <c r="BF11" s="51"/>
-      <c r="BG11" s="51"/>
-      <c r="BH11" s="51"/>
-      <c r="BI11" s="51"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="45"/>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="45"/>
+      <c r="BI11" s="45"/>
     </row>
     <row r="12" spans="1:61" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
-        <v>26</v>
+      <c r="A12" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="40">
-        <v>44820</v>
-      </c>
-      <c r="D12" s="40">
-        <v>44820</v>
-      </c>
-      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38">
+        <v>44866</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="9" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
+    </row>
+    <row r="13" spans="1:61" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-    </row>
-    <row r="13" spans="1:61" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="40">
-        <v>44820</v>
-      </c>
-      <c r="D13" s="40">
-        <v>44820</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="9" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+    </row>
+    <row r="14" spans="1:61" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-    </row>
-    <row r="14" spans="1:61" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="40">
-        <v>44820</v>
-      </c>
-      <c r="D14" s="40">
-        <v>44820</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="9" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="45"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+    </row>
+    <row r="15" spans="1:61" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-    </row>
-    <row r="15" spans="1:61" s="2" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="40">
-        <v>44820</v>
-      </c>
-      <c r="D15" s="40">
-        <v>44820</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="9" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="45"/>
+      <c r="BC15" s="45"/>
+      <c r="BD15" s="45"/>
+      <c r="BE15" s="45"/>
+      <c r="BF15" s="45"/>
+      <c r="BG15" s="45"/>
+      <c r="BH15" s="45"/>
+      <c r="BI15" s="45"/>
+    </row>
+    <row r="16" spans="1:61" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-    </row>
-    <row r="16" spans="1:61" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="40">
-        <v>44820</v>
-      </c>
-      <c r="D16" s="40">
-        <v>44820</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38">
+        <v>44880</v>
+      </c>
+      <c r="E16" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
+        <v/>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="45"/>
+      <c r="BC16" s="45"/>
+      <c r="BD16" s="45"/>
+      <c r="BE16" s="45"/>
+      <c r="BF16" s="45"/>
+      <c r="BG16" s="45"/>
+      <c r="BH16" s="45"/>
+      <c r="BI16" s="45"/>
     </row>
     <row r="17" spans="1:61" s="2" customFormat="1" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
-        <v>28</v>
+      <c r="A17" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="9" t="str">
         <f t="shared" ref="E17:E22" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="45"/>
+      <c r="BA17" s="45"/>
+      <c r="BB17" s="45"/>
+      <c r="BC17" s="45"/>
+      <c r="BD17" s="45"/>
+      <c r="BE17" s="45"/>
+      <c r="BF17" s="45"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="45"/>
+      <c r="BI17" s="45"/>
     </row>
     <row r="18" spans="1:61" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="31">
-        <v>0</v>
-      </c>
-      <c r="C18" s="55">
-        <v>44820</v>
-      </c>
-      <c r="D18" s="55">
-        <v>44820</v>
-      </c>
-      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49">
+        <v>44881</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="51"/>
+        <v/>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="45"/>
+      <c r="BC18" s="45"/>
+      <c r="BD18" s="45"/>
+      <c r="BE18" s="45"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="45"/>
+      <c r="BH18" s="45"/>
+      <c r="BI18" s="45"/>
     </row>
     <row r="19" spans="1:61" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B19" s="31">
-        <v>0</v>
-      </c>
-      <c r="C19" s="55">
-        <v>44820</v>
-      </c>
-      <c r="D19" s="55">
-        <v>44820</v>
-      </c>
-      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BI19" s="51"/>
+        <v/>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
     </row>
     <row r="20" spans="1:61" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B20" s="31">
-        <v>0</v>
-      </c>
-      <c r="C20" s="55">
-        <v>44820</v>
-      </c>
-      <c r="D20" s="55">
-        <v>44820</v>
-      </c>
-      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="51"/>
+        <v/>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="45"/>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="45"/>
+      <c r="BD20" s="45"/>
+      <c r="BE20" s="45"/>
+      <c r="BF20" s="45"/>
+      <c r="BG20" s="45"/>
+      <c r="BH20" s="45"/>
+      <c r="BI20" s="45"/>
     </row>
     <row r="21" spans="1:61" s="2" customFormat="1" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21" s="31">
-        <v>0</v>
-      </c>
-      <c r="C21" s="55">
-        <v>44820</v>
-      </c>
-      <c r="D21" s="55">
-        <v>44820</v>
-      </c>
-      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
+        <v/>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="45"/>
+      <c r="BD21" s="45"/>
+      <c r="BE21" s="45"/>
+      <c r="BF21" s="45"/>
+      <c r="BG21" s="45"/>
+      <c r="BH21" s="45"/>
+      <c r="BI21" s="45"/>
     </row>
     <row r="22" spans="1:61" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B22" s="31">
-        <v>0</v>
-      </c>
-      <c r="C22" s="55">
-        <v>44820</v>
-      </c>
-      <c r="D22" s="55">
-        <v>44820</v>
-      </c>
-      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49">
+        <v>44896</v>
+      </c>
+      <c r="E22" s="9" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
+        <v/>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="45"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="45"/>
+      <c r="BE22" s="45"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="45"/>
+      <c r="BH22" s="45"/>
+      <c r="BI22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AO4:AU4"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="M4:S4"/>
@@ -3449,6 +3261,9 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="BC4:BI4"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B14 B16">
     <cfRule type="dataBar" priority="46">
@@ -3465,15 +3280,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:BI16">
-    <cfRule type="expression" dxfId="23" priority="65">
+    <cfRule type="expression" dxfId="5" priority="65">
       <formula>AND(TODAY()&gt;=F$5,TODAY()&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:BI16">
-    <cfRule type="expression" dxfId="22" priority="59">
+    <cfRule type="expression" dxfId="4" priority="59">
       <formula>AND(task_start&lt;=F$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=F$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=F$5,task_start&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
